--- a/Code/Results/Cases/Case_8_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.578109598802826</v>
+        <v>2.587704223463334</v>
       </c>
       <c r="C2">
-        <v>0.474109122007377</v>
+        <v>0.5114769256227305</v>
       </c>
       <c r="D2">
-        <v>0.05382640775808767</v>
+        <v>0.06134886989572408</v>
       </c>
       <c r="E2">
-        <v>0.04456326613896744</v>
+        <v>0.04844703327142352</v>
       </c>
       <c r="F2">
-        <v>0.7335636503100034</v>
+        <v>0.6570865793085829</v>
       </c>
       <c r="G2">
-        <v>0.0008191211335556462</v>
+        <v>0.01129715878032989</v>
       </c>
       <c r="H2">
-        <v>0.007810766792364199</v>
+        <v>0.004887971360071575</v>
       </c>
       <c r="I2">
-        <v>0.007207890370497072</v>
+        <v>0.003770637265876786</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3925411646044346</v>
+        <v>0.3343289606515256</v>
       </c>
       <c r="L2">
-        <v>0.07512523576352592</v>
+        <v>0.1576100780158711</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0975531149553106</v>
       </c>
       <c r="N2">
-        <v>0.208260212962216</v>
+        <v>0.07889488058079408</v>
       </c>
       <c r="O2">
-        <v>0.4611006839175715</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2240151273714872</v>
       </c>
       <c r="Q2">
-        <v>1.900009322212696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4669136693229632</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.651002105033882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.24708831680482</v>
+        <v>2.256591720665881</v>
       </c>
       <c r="C3">
-        <v>0.4222551669995482</v>
+        <v>0.4526878961044076</v>
       </c>
       <c r="D3">
-        <v>0.05028761301265661</v>
+        <v>0.05816031928460319</v>
       </c>
       <c r="E3">
-        <v>0.04367506384587583</v>
+        <v>0.04807709626295531</v>
       </c>
       <c r="F3">
-        <v>0.7171297193724655</v>
+        <v>0.6416306018052111</v>
       </c>
       <c r="G3">
-        <v>0.0008223215083129038</v>
+        <v>0.01458093910418201</v>
       </c>
       <c r="H3">
-        <v>0.01036556152187649</v>
+        <v>0.006658905140167454</v>
       </c>
       <c r="I3">
-        <v>0.009597357450751964</v>
+        <v>0.005135999914336775</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4010874815025396</v>
+        <v>0.3423085795275576</v>
       </c>
       <c r="L3">
-        <v>0.07268148860551982</v>
+        <v>0.1632852986446984</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0993257561888683</v>
       </c>
       <c r="N3">
-        <v>0.1867896682373527</v>
+        <v>0.07661596523778513</v>
       </c>
       <c r="O3">
-        <v>0.4030057637761573</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2011357179602768</v>
       </c>
       <c r="Q3">
-        <v>1.867596143043471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4075002221262167</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.618484606570462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.043504688095084</v>
+        <v>2.052765576018373</v>
       </c>
       <c r="C4">
-        <v>0.3905848172224182</v>
+        <v>0.4168908752781135</v>
       </c>
       <c r="D4">
-        <v>0.04813466464710103</v>
+        <v>0.0562419566690977</v>
       </c>
       <c r="E4">
-        <v>0.04311557563024615</v>
+        <v>0.0478426751909431</v>
       </c>
       <c r="F4">
-        <v>0.7076904694531123</v>
+        <v>0.6325004159275736</v>
       </c>
       <c r="G4">
-        <v>0.000824357806850079</v>
+        <v>0.01688576379017859</v>
       </c>
       <c r="H4">
-        <v>0.01217704455195771</v>
+        <v>0.00792741061026514</v>
       </c>
       <c r="I4">
-        <v>0.01133414701310365</v>
+        <v>0.006166830839466897</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.406720291912432</v>
+        <v>0.3474335028836535</v>
       </c>
       <c r="L4">
-        <v>0.07115056835832867</v>
+        <v>0.1669084364487645</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1009557445633913</v>
       </c>
       <c r="N4">
-        <v>0.1736751993764258</v>
+        <v>0.07519782006172981</v>
       </c>
       <c r="O4">
-        <v>0.3673369989817346</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1871876807016406</v>
       </c>
       <c r="Q4">
-        <v>1.849645155347844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3710052031833797</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.599460357483039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.960367740843253</v>
+        <v>1.969485533635179</v>
       </c>
       <c r="C5">
-        <v>0.3783557461304383</v>
+        <v>0.403019002970467</v>
       </c>
       <c r="D5">
-        <v>0.04728549723795794</v>
+        <v>0.05549386829515868</v>
       </c>
       <c r="E5">
-        <v>0.04287299112712972</v>
+        <v>0.04773542275386067</v>
       </c>
       <c r="F5">
-        <v>0.7033536906452014</v>
+        <v>0.6282586042591802</v>
       </c>
       <c r="G5">
-        <v>0.0008252104468341304</v>
+        <v>0.01790068286837954</v>
       </c>
       <c r="H5">
-        <v>0.01297812036212648</v>
+        <v>0.008491164362108478</v>
       </c>
       <c r="I5">
-        <v>0.01219208546167705</v>
+        <v>0.006727083993595784</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4087123469456273</v>
+        <v>0.3492215941970738</v>
       </c>
       <c r="L5">
-        <v>0.07052696672744752</v>
+        <v>0.1682353468681583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1016723437461931</v>
       </c>
       <c r="N5">
-        <v>0.1685075237236902</v>
+        <v>0.07462575501841862</v>
       </c>
       <c r="O5">
-        <v>0.3528906792705655</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1816862506779415</v>
       </c>
       <c r="Q5">
-        <v>1.840851429957212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3562159659013702</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.590116820828271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.946458973536096</v>
+        <v>1.955548736280548</v>
       </c>
       <c r="C6">
-        <v>0.3771118210135285</v>
+        <v>0.4015107678249876</v>
       </c>
       <c r="D6">
-        <v>0.04717356927740823</v>
+        <v>0.05539960729537086</v>
       </c>
       <c r="E6">
-        <v>0.04281924942493065</v>
+        <v>0.04770554394328341</v>
       </c>
       <c r="F6">
-        <v>0.7018514122563957</v>
+        <v>0.6268174280095593</v>
       </c>
       <c r="G6">
-        <v>0.0008253588426887636</v>
+        <v>0.01808055261189023</v>
       </c>
       <c r="H6">
-        <v>0.01311977645647056</v>
+        <v>0.008591135215642046</v>
       </c>
       <c r="I6">
-        <v>0.01244964965365369</v>
+        <v>0.006946189765751676</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4085639550942055</v>
+        <v>0.349089005632738</v>
       </c>
       <c r="L6">
-        <v>0.07043328937451676</v>
+        <v>0.1682338108261341</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.101698118495908</v>
       </c>
       <c r="N6">
-        <v>0.16784771968684</v>
+        <v>0.07454396597174018</v>
       </c>
       <c r="O6">
-        <v>0.35060318906514</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1809688175089121</v>
       </c>
       <c r="Q6">
-        <v>1.837037702801268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3538679579268731</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.586362201331738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.042113741130663</v>
+        <v>2.051339419267549</v>
       </c>
       <c r="C7">
-        <v>0.3925687942103764</v>
+        <v>0.4174462521996531</v>
       </c>
       <c r="D7">
-        <v>0.048201936411985</v>
+        <v>0.05667218488883918</v>
       </c>
       <c r="E7">
-        <v>0.04307654237757896</v>
+        <v>0.04780877034303521</v>
       </c>
       <c r="F7">
-        <v>0.7054721693286012</v>
+        <v>0.627045862602948</v>
       </c>
       <c r="G7">
-        <v>0.0008243845189712931</v>
+        <v>0.01730619124217614</v>
       </c>
       <c r="H7">
-        <v>0.01220084859834902</v>
+        <v>0.007961281739082754</v>
       </c>
       <c r="I7">
-        <v>0.01163224480649649</v>
+        <v>0.006508460777876479</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4054266846980319</v>
+        <v>0.3448566609098958</v>
       </c>
       <c r="L7">
-        <v>0.07117148862345779</v>
+        <v>0.1656150963426377</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1003206399113461</v>
       </c>
       <c r="N7">
-        <v>0.174145408036317</v>
+        <v>0.07519209711760766</v>
       </c>
       <c r="O7">
-        <v>0.3674470181662741</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.187583034557413</v>
       </c>
       <c r="Q7">
-        <v>1.843027989422836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3710719836901077</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.582438325900526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.463666786447391</v>
+        <v>2.473153655017995</v>
       </c>
       <c r="C8">
-        <v>0.4590677491661665</v>
+        <v>0.4892494113252042</v>
       </c>
       <c r="D8">
-        <v>0.05270658005904494</v>
+        <v>0.06155983336626747</v>
       </c>
       <c r="E8">
-        <v>0.04421404342177571</v>
+        <v>0.04828219569334036</v>
       </c>
       <c r="F8">
-        <v>0.7249148228326092</v>
+        <v>0.6379663388182237</v>
       </c>
       <c r="G8">
-        <v>0.0008202288262100988</v>
+        <v>0.01433482854174084</v>
       </c>
       <c r="H8">
-        <v>0.008653513531256804</v>
+        <v>0.005513203077660289</v>
       </c>
       <c r="I8">
-        <v>0.008316717564382792</v>
+        <v>0.004625032767293646</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3936814395166692</v>
+        <v>0.3309582154159614</v>
       </c>
       <c r="L8">
-        <v>0.07433214061438598</v>
+        <v>0.156750750144715</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.096269457909127</v>
       </c>
       <c r="N8">
-        <v>0.2015609796419184</v>
+        <v>0.07806143153717215</v>
       </c>
       <c r="O8">
-        <v>0.4414723074592288</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.216603440427555</v>
       </c>
       <c r="Q8">
-        <v>1.87986247570646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.446717704483568</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.59617340774706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.288744571029554</v>
+        <v>3.297156417434849</v>
       </c>
       <c r="C9">
-        <v>0.5871516855785046</v>
+        <v>0.633834956403831</v>
       </c>
       <c r="D9">
-        <v>0.0615722954647282</v>
+        <v>0.07000072244218103</v>
       </c>
       <c r="E9">
-        <v>0.04640285828340174</v>
+        <v>0.04920866712273098</v>
       </c>
       <c r="F9">
-        <v>0.7723565117676046</v>
+        <v>0.6781888356049564</v>
       </c>
       <c r="G9">
-        <v>0.000812609397011398</v>
+        <v>0.008034626654587207</v>
       </c>
       <c r="H9">
-        <v>0.003720340026742652</v>
+        <v>0.002158897456452147</v>
       </c>
       <c r="I9">
-        <v>0.003648841347597021</v>
+        <v>0.001999015937072635</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3761671324675468</v>
+        <v>0.3127307648800759</v>
       </c>
       <c r="L9">
-        <v>0.08024644077733001</v>
+        <v>0.1439946512275583</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09453099913497809</v>
       </c>
       <c r="N9">
-        <v>0.2549765708408813</v>
+        <v>0.08359956169082317</v>
       </c>
       <c r="O9">
-        <v>0.5862303552572641</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.273642075822508</v>
       </c>
       <c r="Q9">
-        <v>1.980096957098056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5946053149133803</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.68090866806449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.897645623991423</v>
+        <v>3.9038120046622</v>
       </c>
       <c r="C10">
-        <v>0.6883369159534141</v>
+        <v>0.7380269808338653</v>
       </c>
       <c r="D10">
-        <v>0.06728935793972823</v>
+        <v>0.07761942452950166</v>
       </c>
       <c r="E10">
-        <v>0.04752358800770229</v>
+        <v>0.04950168397066879</v>
       </c>
       <c r="F10">
-        <v>0.798174204863713</v>
+        <v>0.6802217497979299</v>
       </c>
       <c r="G10">
-        <v>0.0008074192923088741</v>
+        <v>0.01270981096498325</v>
       </c>
       <c r="H10">
-        <v>0.001774260832318575</v>
+        <v>0.001009481371331944</v>
       </c>
       <c r="I10">
-        <v>0.001945118012036673</v>
+        <v>0.001364012808116044</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3597299924773587</v>
+        <v>0.2891714674412995</v>
       </c>
       <c r="L10">
-        <v>0.08564278605687115</v>
+        <v>0.1313546087112218</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09131634973255132</v>
       </c>
       <c r="N10">
-        <v>0.2871096701349813</v>
+        <v>0.08885787692852176</v>
       </c>
       <c r="O10">
-        <v>0.688545227691435</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3076218030651887</v>
       </c>
       <c r="Q10">
-        <v>2.031957891808901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6986363027490867</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.661750779371573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.203137565353074</v>
+        <v>4.208946569491843</v>
       </c>
       <c r="C11">
-        <v>0.7810475624595199</v>
+        <v>0.8076972648194101</v>
       </c>
       <c r="D11">
-        <v>0.06187283205806438</v>
+        <v>0.07584873290117145</v>
       </c>
       <c r="E11">
-        <v>0.04667088552403698</v>
+        <v>0.04843842791739839</v>
       </c>
       <c r="F11">
-        <v>0.7086591668460045</v>
+        <v>0.568448453185475</v>
       </c>
       <c r="G11">
-        <v>0.0008057705963248123</v>
+        <v>0.04643828469393796</v>
       </c>
       <c r="H11">
-        <v>0.02019356421236651</v>
+        <v>0.01956575362731527</v>
       </c>
       <c r="I11">
-        <v>0.002101276660884999</v>
+        <v>0.001887668832428524</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3101714795557342</v>
+        <v>0.2397695081411992</v>
       </c>
       <c r="L11">
-        <v>0.1038579730550921</v>
+        <v>0.1133565731499768</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07342963181190321</v>
       </c>
       <c r="N11">
-        <v>0.2376126184920793</v>
+        <v>0.1088006903168228</v>
       </c>
       <c r="O11">
-        <v>0.6964499234918762</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2538457192279395</v>
       </c>
       <c r="Q11">
-        <v>1.796184084586201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7051421057129446</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.355872350372749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.333904280319587</v>
+        <v>4.340244073798601</v>
       </c>
       <c r="C12">
-        <v>0.83701002279156</v>
+        <v>0.8475134131715265</v>
       </c>
       <c r="D12">
-        <v>0.05624725989543577</v>
+        <v>0.07120503227133668</v>
       </c>
       <c r="E12">
-        <v>0.04888684126534937</v>
+        <v>0.05027222225856942</v>
       </c>
       <c r="F12">
-        <v>0.634517770923793</v>
+        <v>0.4940468648023284</v>
       </c>
       <c r="G12">
-        <v>0.0008053701016914712</v>
+        <v>0.0708739761305921</v>
       </c>
       <c r="H12">
-        <v>0.05891769219890364</v>
+        <v>0.05830610099201294</v>
       </c>
       <c r="I12">
-        <v>0.00202121021625068</v>
+        <v>0.001864616208377079</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2776537243488946</v>
+        <v>0.2142478915841988</v>
       </c>
       <c r="L12">
-        <v>0.1256701503545798</v>
+        <v>0.1051450925560857</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06296194409242695</v>
       </c>
       <c r="N12">
-        <v>0.1928746922733708</v>
+        <v>0.1319078697608234</v>
       </c>
       <c r="O12">
-        <v>0.6804609677609292</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2057596697096429</v>
       </c>
       <c r="Q12">
-        <v>1.605259349963035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6877955757034897</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.163924786671544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.336020316071654</v>
+        <v>4.343716341043546</v>
       </c>
       <c r="C13">
-        <v>0.8707585491171699</v>
+        <v>0.8743246398440192</v>
       </c>
       <c r="D13">
-        <v>0.05028466419006605</v>
+        <v>0.06357709196889516</v>
       </c>
       <c r="E13">
-        <v>0.05342957313551011</v>
+        <v>0.05463605058936416</v>
       </c>
       <c r="F13">
-        <v>0.5644152727519796</v>
+        <v>0.4432920023236093</v>
       </c>
       <c r="G13">
-        <v>0.000805930251372387</v>
+        <v>0.06518071736832098</v>
       </c>
       <c r="H13">
-        <v>0.1148958234400936</v>
+        <v>0.1141981496052296</v>
       </c>
       <c r="I13">
-        <v>0.002104075561160101</v>
+        <v>0.001857586973054381</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2540492535407282</v>
+        <v>0.2021742686741064</v>
       </c>
       <c r="L13">
-        <v>0.1511827122689269</v>
+        <v>0.1017126859618775</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05713124404620284</v>
       </c>
       <c r="N13">
-        <v>0.150309856674447</v>
+        <v>0.1581500682897428</v>
       </c>
       <c r="O13">
-        <v>0.6457602457623821</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1604421804914935</v>
       </c>
       <c r="Q13">
-        <v>1.427039502340364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.651763801095008</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.045217041637912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.279046051303908</v>
+        <v>4.288019613722895</v>
       </c>
       <c r="C14">
-        <v>0.8851186006683065</v>
+        <v>0.8880310422837852</v>
       </c>
       <c r="D14">
-        <v>0.04605411453957942</v>
+        <v>0.05728853639161002</v>
       </c>
       <c r="E14">
-        <v>0.05801518345865553</v>
+        <v>0.05932648490267134</v>
       </c>
       <c r="F14">
-        <v>0.5175426395926479</v>
+        <v>0.4164410851807716</v>
       </c>
       <c r="G14">
-        <v>0.000806758532357402</v>
+        <v>0.04869757999308888</v>
       </c>
       <c r="H14">
-        <v>0.1644856721840426</v>
+        <v>0.1636762072264588</v>
       </c>
       <c r="I14">
-        <v>0.002339940571910226</v>
+        <v>0.001969431961823531</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2418953951073171</v>
+        <v>0.198534601692363</v>
       </c>
       <c r="L14">
-        <v>0.1715301795550843</v>
+        <v>0.1007986480231302</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05487456168057214</v>
       </c>
       <c r="N14">
-        <v>0.1225177038434282</v>
+        <v>0.1785700396859653</v>
       </c>
       <c r="O14">
-        <v>0.6132624218275566</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1310155539256783</v>
       </c>
       <c r="Q14">
-        <v>1.308717297729089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6183338314555371</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9884928036529743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.237390465812894</v>
+        <v>4.246819996676493</v>
       </c>
       <c r="C15">
-        <v>0.8844883633748566</v>
+        <v>0.8891360407022546</v>
       </c>
       <c r="D15">
-        <v>0.04494731023466514</v>
+        <v>0.05533138863383158</v>
       </c>
       <c r="E15">
-        <v>0.0592144957041949</v>
+        <v>0.06068616308275132</v>
       </c>
       <c r="F15">
-        <v>0.505994075847525</v>
+        <v>0.4126215961250352</v>
       </c>
       <c r="G15">
-        <v>0.0008071808685736938</v>
+        <v>0.04035325779526744</v>
       </c>
       <c r="H15">
-        <v>0.177123976652382</v>
+        <v>0.1762541060560494</v>
       </c>
       <c r="I15">
-        <v>0.002569145960812591</v>
+        <v>0.002149650563912253</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2400817617101509</v>
+        <v>0.1991258880416771</v>
       </c>
       <c r="L15">
-        <v>0.1763136739676057</v>
+        <v>0.1010007840839655</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05487410178731533</v>
       </c>
       <c r="N15">
-        <v>0.1157943263171077</v>
+        <v>0.1832504473538421</v>
       </c>
       <c r="O15">
-        <v>0.6016111697586766</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1239495980621754</v>
       </c>
       <c r="Q15">
-        <v>1.279775040095984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6064442125860197</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.983386224687294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.972960646081162</v>
+        <v>3.983604232822699</v>
       </c>
       <c r="C16">
-        <v>0.8338810561835146</v>
+        <v>0.8541990580464471</v>
       </c>
       <c r="D16">
-        <v>0.04387595312479675</v>
+        <v>0.05131833706130351</v>
       </c>
       <c r="E16">
-        <v>0.05757683947353165</v>
+        <v>0.06016281300484394</v>
       </c>
       <c r="F16">
-        <v>0.5081527905974781</v>
+        <v>0.4396519036606321</v>
       </c>
       <c r="G16">
-        <v>0.0008092932595090575</v>
+        <v>0.0126154040486135</v>
       </c>
       <c r="H16">
-        <v>0.1651698416058736</v>
+        <v>0.1639423341949282</v>
       </c>
       <c r="I16">
-        <v>0.003308723143357284</v>
+        <v>0.002507164342699042</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2506593108273396</v>
+        <v>0.2134689874763707</v>
       </c>
       <c r="L16">
-        <v>0.1679135737535304</v>
+        <v>0.1055027569373603</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05996026477416638</v>
       </c>
       <c r="N16">
-        <v>0.1120648814922092</v>
+        <v>0.1742137263003514</v>
       </c>
       <c r="O16">
-        <v>0.565669105952594</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1204900831887912</v>
       </c>
       <c r="Q16">
-        <v>1.289776289558446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5703739368061207</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.070378106952575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.801001997262119</v>
+        <v>3.811801462439519</v>
       </c>
       <c r="C17">
-        <v>0.787661900068656</v>
+        <v>0.8173285092056233</v>
       </c>
       <c r="D17">
-        <v>0.04525739051370081</v>
+        <v>0.05176697733279667</v>
       </c>
       <c r="E17">
-        <v>0.05365582685132253</v>
+        <v>0.05676574851282368</v>
       </c>
       <c r="F17">
-        <v>0.5343145782609042</v>
+        <v>0.4730547605790321</v>
       </c>
       <c r="G17">
-        <v>0.0008104788712157239</v>
+        <v>0.00698680878372393</v>
       </c>
       <c r="H17">
-        <v>0.1278983042757602</v>
+        <v>0.1264447271098845</v>
       </c>
       <c r="I17">
-        <v>0.003810672592972963</v>
+        <v>0.002770585514299206</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2649771227798947</v>
+        <v>0.2272321190750626</v>
       </c>
       <c r="L17">
-        <v>0.1501864134733211</v>
+        <v>0.1102806457171859</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06493767215669966</v>
       </c>
       <c r="N17">
-        <v>0.1233716476127142</v>
+        <v>0.1562113542421741</v>
       </c>
       <c r="O17">
-        <v>0.5553028648255207</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1327977935969571</v>
       </c>
       <c r="Q17">
-        <v>1.359433670539886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5603488852778895</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.162762037944177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.689173881318538</v>
+        <v>3.699434826926563</v>
       </c>
       <c r="C18">
-        <v>0.7387795282852494</v>
+        <v>0.7767986266764808</v>
       </c>
       <c r="D18">
-        <v>0.04902029447266898</v>
+        <v>0.05540747799201284</v>
       </c>
       <c r="E18">
-        <v>0.04878857083989185</v>
+        <v>0.05203124739947995</v>
       </c>
       <c r="F18">
-        <v>0.5874814405212661</v>
+        <v>0.5239331530101268</v>
       </c>
       <c r="G18">
-        <v>0.0008109457162389982</v>
+        <v>0.005743677131905045</v>
       </c>
       <c r="H18">
-        <v>0.07524669808983475</v>
+        <v>0.07371199329865163</v>
       </c>
       <c r="I18">
-        <v>0.003760388597869202</v>
+        <v>0.002576758487425224</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2867306671598389</v>
+        <v>0.2452199606377814</v>
       </c>
       <c r="L18">
-        <v>0.1257574725141453</v>
+        <v>0.1168758457240964</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07159470606305618</v>
       </c>
       <c r="N18">
-        <v>0.1510992657395676</v>
+        <v>0.1315197127075507</v>
       </c>
       <c r="O18">
-        <v>0.5653659499124259</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1625468181770131</v>
       </c>
       <c r="Q18">
-        <v>1.497511605223934</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5713087909293364</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.294171326974634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.633377567619107</v>
+        <v>3.642675329968597</v>
       </c>
       <c r="C19">
-        <v>0.6974119874112432</v>
+        <v>0.7434589944685968</v>
       </c>
       <c r="D19">
-        <v>0.05482939931893327</v>
+        <v>0.06152637349186563</v>
       </c>
       <c r="E19">
-        <v>0.04570789007489884</v>
+        <v>0.04875389361215987</v>
       </c>
       <c r="F19">
-        <v>0.6588376891030663</v>
+        <v>0.5870377253412045</v>
       </c>
       <c r="G19">
-        <v>0.0008107713865998054</v>
+        <v>0.005335163830316958</v>
       </c>
       <c r="H19">
-        <v>0.02973104684134853</v>
+        <v>0.02827990492733079</v>
       </c>
       <c r="I19">
-        <v>0.003800110178490357</v>
+        <v>0.002679484086497652</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3144733644896434</v>
+        <v>0.2667225972915972</v>
       </c>
       <c r="L19">
-        <v>0.1032147981938714</v>
+        <v>0.1248603817153047</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07972571312580179</v>
       </c>
       <c r="N19">
-        <v>0.1947274547449425</v>
+        <v>0.1083805121774901</v>
       </c>
       <c r="O19">
-        <v>0.5917381946348428</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2092014417427706</v>
       </c>
       <c r="Q19">
-        <v>1.679988824458491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5990012082831697</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.451845698775116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.73695484377464</v>
+        <v>3.744026032498255</v>
       </c>
       <c r="C20">
-        <v>0.6688461980422176</v>
+        <v>0.7232568032931397</v>
       </c>
       <c r="D20">
-        <v>0.0659873801256694</v>
+        <v>0.07445812175886601</v>
       </c>
       <c r="E20">
-        <v>0.04711454779051416</v>
+        <v>0.04932234522514345</v>
       </c>
       <c r="F20">
-        <v>0.7840506571257748</v>
+        <v>0.6847061204959743</v>
       </c>
       <c r="G20">
-        <v>0.0008088027317785042</v>
+        <v>0.00642261586739945</v>
       </c>
       <c r="H20">
-        <v>0.002189449334602411</v>
+        <v>0.001219311388207078</v>
       </c>
       <c r="I20">
-        <v>0.003119244787184172</v>
+        <v>0.00242069141058554</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.35978755472334</v>
+        <v>0.2963289145566605</v>
       </c>
       <c r="L20">
-        <v>0.08441159395761666</v>
+        <v>0.1349166667618391</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09248650426320992</v>
       </c>
       <c r="N20">
-        <v>0.2800179621965668</v>
+        <v>0.08779746681366518</v>
       </c>
       <c r="O20">
-        <v>0.662435967543999</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3002419273903172</v>
       </c>
       <c r="Q20">
-        <v>1.996480254831653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6721884815494334</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.684483663473571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.19948598644504</v>
+        <v>4.203159890968607</v>
       </c>
       <c r="C21">
-        <v>0.7383587692002038</v>
+        <v>0.7680912489705065</v>
       </c>
       <c r="D21">
-        <v>0.07186444427103567</v>
+        <v>0.08964305599734246</v>
       </c>
       <c r="E21">
-        <v>0.04863908725145327</v>
+        <v>0.05026120753063479</v>
       </c>
       <c r="F21">
-        <v>0.8248308220070442</v>
+        <v>0.6442626142695786</v>
       </c>
       <c r="G21">
-        <v>0.000804784272969595</v>
+        <v>0.06738555357508602</v>
       </c>
       <c r="H21">
-        <v>0.0007833333691460442</v>
+        <v>0.0003820579755391407</v>
       </c>
       <c r="I21">
-        <v>0.002130771956921684</v>
+        <v>0.002106961914991601</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3566478934279935</v>
+        <v>0.2633878019970375</v>
       </c>
       <c r="L21">
-        <v>0.0867384005173264</v>
+        <v>0.1208736625007365</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.08394029781013934</v>
       </c>
       <c r="N21">
-        <v>0.3167217317091939</v>
+        <v>0.08930035622579169</v>
       </c>
       <c r="O21">
-        <v>0.7477985908649245</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.337989683934282</v>
       </c>
       <c r="Q21">
-        <v>2.091141743126343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7583938447963732</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.526658518946192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.504067843936639</v>
+        <v>4.505243993642182</v>
       </c>
       <c r="C22">
-        <v>0.7836126855580403</v>
+        <v>0.7945976736075977</v>
       </c>
       <c r="D22">
-        <v>0.07514038045233207</v>
+        <v>0.1002178595023651</v>
       </c>
       <c r="E22">
-        <v>0.04945681848928229</v>
+        <v>0.05086583804988276</v>
       </c>
       <c r="F22">
-        <v>0.8490787697693918</v>
+        <v>0.6125092619095724</v>
       </c>
       <c r="G22">
-        <v>0.0008022380915925608</v>
+        <v>0.1561333999838084</v>
       </c>
       <c r="H22">
-        <v>0.0002971065836800957</v>
+        <v>0.0001250167081415787</v>
       </c>
       <c r="I22">
-        <v>0.001516280233066603</v>
+        <v>0.001708700867514068</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.354085723814709</v>
+        <v>0.2415234924847507</v>
       </c>
       <c r="L22">
-        <v>0.08877539864013784</v>
+        <v>0.112469450332803</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0777727624596487</v>
       </c>
       <c r="N22">
-        <v>0.3360979480284101</v>
+        <v>0.09098099816068839</v>
       </c>
       <c r="O22">
-        <v>0.8010342930976861</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3576768362027138</v>
       </c>
       <c r="Q22">
-        <v>2.148512392141555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.811956514154744</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.412370432942282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.341840591649714</v>
+        <v>4.344460999863486</v>
       </c>
       <c r="C23">
-        <v>0.7567700308896406</v>
+        <v>0.7816488255653837</v>
       </c>
       <c r="D23">
-        <v>0.07329400403236974</v>
+        <v>0.09325423741245231</v>
       </c>
       <c r="E23">
-        <v>0.04905788082261431</v>
+        <v>0.05052848298542267</v>
       </c>
       <c r="F23">
-        <v>0.8385483259460145</v>
+        <v>0.6393031266247178</v>
       </c>
       <c r="G23">
-        <v>0.0008035787234944726</v>
+        <v>0.09039091912764263</v>
       </c>
       <c r="H23">
-        <v>0.0005245802338476047</v>
+        <v>0.0002388841207298098</v>
       </c>
       <c r="I23">
-        <v>0.001497214383232581</v>
+        <v>0.001528440400691444</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3568782911947253</v>
+        <v>0.2567933707603025</v>
       </c>
       <c r="L23">
-        <v>0.08763845772022094</v>
+        <v>0.117992163654721</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08269911038664013</v>
       </c>
       <c r="N23">
-        <v>0.3250886074694961</v>
+        <v>0.09003686465948135</v>
       </c>
       <c r="O23">
-        <v>0.7722456975448821</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3466803251071866</v>
       </c>
       <c r="Q23">
-        <v>2.125128934153679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7831101058459282</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.503133093743799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.727388259462714</v>
+        <v>3.734365063040741</v>
       </c>
       <c r="C24">
-        <v>0.659957965622084</v>
+        <v>0.7151140989682858</v>
       </c>
       <c r="D24">
-        <v>0.06651229103250955</v>
+        <v>0.07496985912677445</v>
       </c>
       <c r="E24">
-        <v>0.04748140169465609</v>
+        <v>0.04963900070157745</v>
       </c>
       <c r="F24">
-        <v>0.7965266315073904</v>
+        <v>0.6961599859762941</v>
       </c>
       <c r="G24">
-        <v>0.000808784037862022</v>
+        <v>0.006217980417743796</v>
       </c>
       <c r="H24">
-        <v>0.00201343039480173</v>
+        <v>0.001058886881529109</v>
       </c>
       <c r="I24">
-        <v>0.00259805969496707</v>
+        <v>0.001809856504295659</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.366119988059797</v>
+        <v>0.3014935088519017</v>
       </c>
       <c r="L24">
-        <v>0.08339117761240722</v>
+        <v>0.1368240145436292</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09444346797277525</v>
       </c>
       <c r="N24">
-        <v>0.2846767858103618</v>
+        <v>0.08658741461268882</v>
       </c>
       <c r="O24">
-        <v>0.664021047060487</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3053170452623846</v>
       </c>
       <c r="Q24">
-        <v>2.03022496337573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.67392990383388</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.715057896453516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.065147147063385</v>
+        <v>3.074127229443548</v>
       </c>
       <c r="C25">
-        <v>0.5562881899520562</v>
+        <v>0.6005925111925876</v>
       </c>
       <c r="D25">
-        <v>0.05929697583199811</v>
+        <v>0.06730097376204469</v>
       </c>
       <c r="E25">
-        <v>0.04576044151644165</v>
+        <v>0.04890898788556863</v>
       </c>
       <c r="F25">
-        <v>0.7550344786036476</v>
+        <v>0.6681225183971975</v>
       </c>
       <c r="G25">
-        <v>0.0008146363230165004</v>
+        <v>0.008385219284520851</v>
       </c>
       <c r="H25">
-        <v>0.004832614295924909</v>
+        <v>0.002887536190604667</v>
       </c>
       <c r="I25">
-        <v>0.005122452917399656</v>
+        <v>0.003054327455200401</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3782329708007595</v>
+        <v>0.3173846142136227</v>
       </c>
       <c r="L25">
-        <v>0.07873533264985966</v>
+        <v>0.1473021693866592</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09450425569788123</v>
       </c>
       <c r="N25">
-        <v>0.2414384849496258</v>
+        <v>0.08224867291724536</v>
       </c>
       <c r="O25">
-        <v>0.5475894419729173</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2591853731868525</v>
       </c>
       <c r="Q25">
-        <v>1.939484101931384</v>
+        <v>0.5551743107647269</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.661606779424233</v>
       </c>
     </row>
   </sheetData>
